--- a/medicine/Mort/Le_Chevalier_à_la_croisée_des_chemins/Le_Chevalier_à_la_croisée_des_chemins.xlsx
+++ b/medicine/Mort/Le_Chevalier_à_la_croisée_des_chemins/Le_Chevalier_à_la_croisée_des_chemins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Chevalier_%C3%A0_la_crois%C3%A9e_des_chemins</t>
+          <t>Le_Chevalier_à_la_croisée_des_chemins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chevalier à la croisée des chemins (en russe : Витязь на распутье) est un tableau de Viktor Vasnetsov.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Chevalier_%C3%A0_la_crois%C3%A9e_des_chemins</t>
+          <t>Le_Chevalier_à_la_croisée_des_chemins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Viktor Vasnetsov dessine les premières esquisses de cette toile au début des années 1870.
 En 1877, avec l'aide de son frère Arcadi (Apollinaire Mikhaïlovitch), il peint une étude intitulée « Guerrier au casque et à la cotte de mailles ». Le sujet de l’œuvre lui est inspirée des impressions laissées par la byline « Ilya Mouromets et les voleurs ».
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Chevalier_%C3%A0_la_crois%C3%A9e_des_chemins</t>
+          <t>Le_Chevalier_à_la_croisée_des_chemins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Analogies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thème de la croisée des chemins est évoqué dans diverses œuvres de la littérature de chevalerie occidentale. Ainsi, dans Méraugis de Portlesguez de Raoul de Houdenc (début du XIIIe siècle), Méraugis, sur les conseils d'une demoiselle (probablement une fée), se retrouve-t-il face à une croix portant une inscription magique, qu'il entend expliquer par une voix en même temps qu'il la lit : l'une des voies s'appelle la Route sans Merci, la seconde la Route de l'Injustice, la troisième la Route sans Nom : c'est cette dernière que le héros finit par choisir.
  Portail de la peinture   Portail des années 1880   Portail de la culture russe   Portail équestre   Portail sur la mort   Portail de Saint-Pétersbourg                </t>
